--- a/apin_summary_Start.xlsx
+++ b/apin_summary_Start.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,20 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>P-value</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>STD-value</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>R2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>min</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>avg</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>max</t>
         </is>
@@ -487,21 +497,27 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.6523317092572716</v>
+        <v>-0.6523317092572337</v>
       </c>
       <c r="D2" t="n">
-        <v>1408.22650889935</v>
+        <v>1408.226508899274</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3414138156028785</v>
+        <v>0.005410766414330262</v>
       </c>
       <c r="F2" t="n">
+        <v>0.2078535525048453</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.3414138156028786</v>
+      </c>
+      <c r="H2" t="n">
         <v>83</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>95.23809523809524</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>108</v>
       </c>
     </row>
@@ -520,18 +536,24 @@
         <v>-1.412055335968379</v>
       </c>
       <c r="D3" t="n">
-        <v>2975.336956521736</v>
+        <v>2975.336956521738</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3317371174215346</v>
+        <v>0.004025647578046887</v>
       </c>
       <c r="F3" t="n">
+        <v>0.4373395013904448</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.3317371174215345</v>
+      </c>
+      <c r="H3" t="n">
         <v>103</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>132.8695652173913</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>165</v>
       </c>
     </row>
@@ -547,21 +569,27 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.7813458416020109</v>
+        <v>-0.7813458416020214</v>
       </c>
       <c r="D4" t="n">
-        <v>1659.647483312266</v>
+        <v>1659.647483312287</v>
       </c>
       <c r="E4" t="n">
-        <v>0.244121255228564</v>
+        <v>0.01942776721776672</v>
       </c>
       <c r="F4" t="n">
+        <v>0.3074337742146882</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.2441212552285641</v>
+      </c>
+      <c r="H4" t="n">
         <v>57</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>86.72727272727273</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>104</v>
       </c>
     </row>
@@ -577,21 +605,27 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.4347826086956507</v>
+        <v>-0.4347826086956521</v>
       </c>
       <c r="D5" t="n">
-        <v>977.3913043478229</v>
+        <v>977.3913043478259</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2295732025461754</v>
+        <v>0.02070998720197431</v>
       </c>
       <c r="F5" t="n">
+        <v>0.1738071388443793</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.2295732025461755</v>
+      </c>
+      <c r="H5" t="n">
         <v>90</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>102.1739130434783</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>114</v>
       </c>
     </row>
@@ -607,21 +641,27 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.5167984189723156</v>
+        <v>-0.5167984189723321</v>
       </c>
       <c r="D6" t="n">
-        <v>1141.706521739097</v>
+        <v>1141.70652173913</v>
       </c>
       <c r="E6" t="n">
+        <v>0.02533430147054694</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2146516233186447</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.2163187480624326</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>91</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>101.3913043478261</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>114</v>
       </c>
     </row>
@@ -637,21 +677,27 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.6245059288537116</v>
+        <v>-0.624505928853755</v>
       </c>
       <c r="D7" t="n">
-        <v>1346.999999999912</v>
+        <v>1347</v>
       </c>
       <c r="E7" t="n">
+        <v>0.02736269552179202</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.263352346370447</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.2112201168462512</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>73</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>89.8695652173913</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>105</v>
       </c>
     </row>
@@ -667,21 +713,27 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.6393280632410508</v>
+        <v>-0.6393280632411066</v>
       </c>
       <c r="D8" t="n">
-        <v>1344.48913043467</v>
+        <v>1344.489130434782</v>
       </c>
       <c r="E8" t="n">
-        <v>0.20684960884226</v>
+        <v>0.02922409333498913</v>
       </c>
       <c r="F8" t="n">
+        <v>0.2731898377356284</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.2068496088422599</v>
+      </c>
+      <c r="H8" t="n">
         <v>44</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>57.52173913043478</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>77</v>
       </c>
     </row>
@@ -697,21 +749,27 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.6907114624505354</v>
+        <v>-0.6907114624505929</v>
       </c>
       <c r="D9" t="n">
-        <v>1431.358695652058</v>
+        <v>1431.358695652174</v>
       </c>
       <c r="E9" t="n">
+        <v>0.0324243790882147</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.301522987301421</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.1999238114255038</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>31</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>40.95652173913044</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>67</v>
       </c>
     </row>
@@ -727,21 +785,27 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.5780632411066937</v>
+        <v>-0.5780632411067196</v>
       </c>
       <c r="D10" t="n">
-        <v>1281.293478260817</v>
+        <v>1281.29347826087</v>
       </c>
       <c r="E10" t="n">
+        <v>0.03997523580550565</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.2639885037957385</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.1858859736411002</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>89</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>117.6521739130435</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>133</v>
       </c>
     </row>
@@ -757,21 +821,27 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.4851778656126453</v>
+        <v>-0.4851778656126482</v>
       </c>
       <c r="D11" t="n">
-        <v>1078.619565217385</v>
+        <v>1078.619565217391</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1792551736034691</v>
+        <v>0.04410708312913857</v>
       </c>
       <c r="F11" t="n">
+        <v>0.2265476490120423</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.179255173603469</v>
+      </c>
+      <c r="H11" t="n">
         <v>88</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>101.9565217391304</v>
       </c>
-      <c r="H11" t="n">
+      <c r="J11" t="n">
         <v>114</v>
       </c>
     </row>
@@ -787,21 +857,27 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.6511857707509302</v>
+        <v>-0.6511857707509883</v>
       </c>
       <c r="D12" t="n">
-        <v>1357.0108695651</v>
+        <v>1357.010869565218</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1790058168100535</v>
+        <v>0.04427027267105722</v>
       </c>
       <c r="F12" t="n">
+        <v>0.3043208602796945</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.1790058168100536</v>
+      </c>
+      <c r="H12" t="n">
         <v>33</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>46.17391304347826</v>
       </c>
-      <c r="H12" t="n">
+      <c r="J12" t="n">
         <v>66</v>
       </c>
     </row>
@@ -817,21 +893,27 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.8596837944663194</v>
+        <v>-0.8596837944664031</v>
       </c>
       <c r="D13" t="n">
-        <v>1806.934782608526</v>
+        <v>1806.934782608696</v>
       </c>
       <c r="E13" t="n">
+        <v>0.04628140363076545</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.4059106730324286</v>
+      </c>
+      <c r="G13" t="n">
         <v>0.1760039363121071</v>
       </c>
-      <c r="F13" t="n">
+      <c r="H13" t="n">
         <v>57</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>76.39130434782609</v>
       </c>
-      <c r="H13" t="n">
+      <c r="J13" t="n">
         <v>100</v>
       </c>
     </row>
@@ -847,21 +929,27 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.4505928853754788</v>
+        <v>-0.4505928853754941</v>
       </c>
       <c r="D14" t="n">
-        <v>1019.695652173882</v>
+        <v>1019.695652173913</v>
       </c>
       <c r="E14" t="n">
+        <v>0.04916750574967595</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.215805347115506</v>
+      </c>
+      <c r="G14" t="n">
         <v>0.1719104467740335</v>
       </c>
-      <c r="F14" t="n">
+      <c r="H14" t="n">
         <v>98</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>112.6521739130435</v>
       </c>
-      <c r="H14" t="n">
+      <c r="J14" t="n">
         <v>123</v>
       </c>
     </row>
@@ -877,21 +965,27 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.2905138339920995</v>
+        <v>-0.2905138339920948</v>
       </c>
       <c r="D15" t="n">
-        <v>742.500000000009</v>
+        <v>742.4999999999999</v>
       </c>
       <c r="E15" t="n">
+        <v>0.05119337906679794</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.1404897355751719</v>
+      </c>
+      <c r="G15" t="n">
         <v>0.1691745216547145</v>
       </c>
-      <c r="F15" t="n">
+      <c r="H15" t="n">
         <v>150</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>157.695652173913</v>
       </c>
-      <c r="H15" t="n">
+      <c r="J15" t="n">
         <v>168</v>
       </c>
     </row>
@@ -907,21 +1001,27 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-1.03403755868551</v>
+        <v>-1.034037558685446</v>
       </c>
       <c r="D16" t="n">
-        <v>2223.872456964135</v>
+        <v>2223.872456964006</v>
       </c>
       <c r="E16" t="n">
+        <v>0.09456099877295779</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.5818616593766724</v>
+      </c>
+      <c r="G16" t="n">
         <v>0.1648464166722005</v>
       </c>
-      <c r="F16" t="n">
+      <c r="H16" t="n">
         <v>91</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>143.3888888888889</v>
       </c>
-      <c r="H16" t="n">
+      <c r="J16" t="n">
         <v>172</v>
       </c>
     </row>
@@ -937,21 +1037,27 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-1.267183835468158</v>
+        <v>-1.267183835468159</v>
       </c>
       <c r="D17" t="n">
-        <v>2619.501713873354</v>
+        <v>2619.501713873355</v>
       </c>
       <c r="E17" t="n">
+        <v>0.07278857169337792</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.669072053226773</v>
+      </c>
+      <c r="G17" t="n">
         <v>0.1520759168317446</v>
       </c>
-      <c r="F17" t="n">
+      <c r="H17" t="n">
         <v>33</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>68.54545454545455</v>
       </c>
-      <c r="H17" t="n">
+      <c r="J17" t="n">
         <v>107</v>
       </c>
     </row>
@@ -967,21 +1073,27 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.4114198087678123</v>
+        <v>-0.4114198087678156</v>
       </c>
       <c r="D18" t="n">
-        <v>871.0436586685851</v>
+        <v>871.0436586685917</v>
       </c>
       <c r="E18" t="n">
+        <v>0.09275816002250109</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.2330441025350494</v>
+      </c>
+      <c r="G18" t="n">
         <v>0.1348243819363419</v>
       </c>
-      <c r="F18" t="n">
+      <c r="H18" t="n">
         <v>34</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>42.81818181818182</v>
       </c>
-      <c r="H18" t="n">
+      <c r="J18" t="n">
         <v>59</v>
       </c>
     </row>
@@ -997,21 +1109,27 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.4239130434782207</v>
+        <v>-0.4239130434782608</v>
       </c>
       <c r="D19" t="n">
-        <v>919.8152173912231</v>
+        <v>919.8152173913043</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1275539765796535</v>
+        <v>0.09432767239190044</v>
       </c>
       <c r="F19" t="n">
+        <v>0.2419298269382391</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.1275539765796536</v>
+      </c>
+      <c r="H19" t="n">
         <v>59</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>66.47826086956522</v>
       </c>
-      <c r="H19" t="n">
+      <c r="J19" t="n">
         <v>90</v>
       </c>
     </row>
@@ -1027,21 +1145,27 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.3130976005773042</v>
+        <v>-0.3130976005773049</v>
       </c>
       <c r="D20" t="n">
-        <v>666.5666606530749</v>
+        <v>666.5666606530763</v>
       </c>
       <c r="E20" t="n">
+        <v>0.1064943208688224</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.1852298919799344</v>
+      </c>
+      <c r="G20" t="n">
         <v>0.1250013539916983</v>
       </c>
-      <c r="F20" t="n">
+      <c r="H20" t="n">
         <v>31</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>36.27272727272727</v>
       </c>
-      <c r="H20" t="n">
+      <c r="J20" t="n">
         <v>53</v>
       </c>
     </row>
@@ -1057,21 +1181,27 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.2381422924901297</v>
+        <v>-0.2381422924901186</v>
       </c>
       <c r="D21" t="n">
-        <v>701.0760869565438</v>
+        <v>701.0760869565219</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1198495303498028</v>
+        <v>0.105621943265021</v>
       </c>
       <c r="F21" t="n">
+        <v>0.1408274050888449</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.1198495303498027</v>
+      </c>
+      <c r="H21" t="n">
         <v>215</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>221.695652173913</v>
       </c>
-      <c r="H21" t="n">
+      <c r="J21" t="n">
         <v>230</v>
       </c>
     </row>
@@ -1087,21 +1217,27 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.29249011857707</v>
+        <v>-0.2924901185770751</v>
       </c>
       <c r="D22" t="n">
-        <v>691.4347826086853</v>
+        <v>691.4347826086957</v>
       </c>
       <c r="E22" t="n">
+        <v>0.1276445516338348</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.184400116039257</v>
+      </c>
+      <c r="G22" t="n">
         <v>0.1069886485747221</v>
       </c>
-      <c r="F22" t="n">
+      <c r="H22" t="n">
         <v>92</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>102.6521739130435</v>
       </c>
-      <c r="H22" t="n">
+      <c r="J22" t="n">
         <v>111</v>
       </c>
     </row>
@@ -1117,21 +1253,27 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.3626482213438143</v>
+        <v>-0.3626482213438735</v>
       </c>
       <c r="D23" t="n">
-        <v>821.097826086837</v>
+        <v>821.0978260869564</v>
       </c>
       <c r="E23" t="n">
+        <v>0.1282675062572704</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.2290265110200455</v>
+      </c>
+      <c r="G23" t="n">
         <v>0.1066590117199874</v>
       </c>
-      <c r="F23" t="n">
+      <c r="H23" t="n">
         <v>77</v>
       </c>
-      <c r="G23" t="n">
+      <c r="I23" t="n">
         <v>91.08695652173913</v>
       </c>
-      <c r="H23" t="n">
+      <c r="J23" t="n">
         <v>106</v>
       </c>
     </row>
@@ -1147,21 +1289,27 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.3132411067193582</v>
+        <v>-0.3132411067193674</v>
       </c>
       <c r="D24" t="n">
-        <v>751.9021739130243</v>
+        <v>751.9021739130432</v>
       </c>
       <c r="E24" t="n">
+        <v>0.140758007189646</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.2046329524592286</v>
+      </c>
+      <c r="G24" t="n">
         <v>0.1003797867919703</v>
       </c>
-      <c r="F24" t="n">
+      <c r="H24" t="n">
         <v>104</v>
       </c>
-      <c r="G24" t="n">
+      <c r="I24" t="n">
         <v>121.3478260869565</v>
       </c>
-      <c r="H24" t="n">
+      <c r="J24" t="n">
         <v>132</v>
       </c>
     </row>
@@ -1177,21 +1325,27 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.3524264838535105</v>
+        <v>0.3524264838535092</v>
       </c>
       <c r="D25" t="n">
-        <v>-576.557459859285</v>
+        <v>-576.5574598592825</v>
       </c>
       <c r="E25" t="n">
+        <v>0.1685468051583866</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.2466907965919034</v>
+      </c>
+      <c r="G25" t="n">
         <v>0.09259786633595567</v>
       </c>
-      <c r="F25" t="n">
+      <c r="H25" t="n">
         <v>116</v>
       </c>
-      <c r="G25" t="n">
+      <c r="I25" t="n">
         <v>132.9090909090909</v>
       </c>
-      <c r="H25" t="n">
+      <c r="J25" t="n">
         <v>153</v>
       </c>
     </row>
@@ -1207,21 +1361,27 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.3073122529644064</v>
+        <v>-0.3073122529644268</v>
       </c>
       <c r="D26" t="n">
-        <v>736.9239130434366</v>
+        <v>736.9239130434781</v>
       </c>
       <c r="E26" t="n">
-        <v>0.09199818136161986</v>
+        <v>0.1594528258473579</v>
       </c>
       <c r="F26" t="n">
+        <v>0.2106803189838705</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.09199818136161983</v>
+      </c>
+      <c r="H26" t="n">
         <v>100</v>
       </c>
-      <c r="G26" t="n">
+      <c r="I26" t="n">
         <v>118.304347826087</v>
       </c>
-      <c r="H26" t="n">
+      <c r="J26" t="n">
         <v>130</v>
       </c>
     </row>
@@ -1237,21 +1397,27 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.2776679841897325</v>
+        <v>-0.2776679841897233</v>
       </c>
       <c r="D27" t="n">
-        <v>780.5978260869747</v>
+        <v>780.5978260869565</v>
       </c>
       <c r="E27" t="n">
+        <v>0.1774018162862519</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.1989517853647533</v>
+      </c>
+      <c r="G27" t="n">
         <v>0.08488166596434502</v>
       </c>
-      <c r="F27" t="n">
+      <c r="H27" t="n">
         <v>206</v>
       </c>
-      <c r="G27" t="n">
+      <c r="I27" t="n">
         <v>221.6521739130435</v>
       </c>
-      <c r="H27" t="n">
+      <c r="J27" t="n">
         <v>236</v>
       </c>
     </row>
@@ -1267,21 +1433,27 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.2816205533596849</v>
+        <v>-0.2816205533596838</v>
       </c>
       <c r="D28" t="n">
-        <v>685.9021739130454</v>
+        <v>685.9021739130435</v>
       </c>
       <c r="E28" t="n">
+        <v>0.2210875801614592</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.2233054791475997</v>
+      </c>
+      <c r="G28" t="n">
         <v>0.07040513833992096</v>
       </c>
-      <c r="F28" t="n">
+      <c r="H28" t="n">
         <v>102</v>
       </c>
-      <c r="G28" t="n">
+      <c r="I28" t="n">
         <v>119</v>
       </c>
-      <c r="H28" t="n">
+      <c r="J28" t="n">
         <v>129</v>
       </c>
     </row>
@@ -1297,21 +1469,27 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.3517786561264259</v>
+        <v>-0.3517786561264822</v>
       </c>
       <c r="D29" t="n">
-        <v>796.0434782607562</v>
+        <v>796.0434782608695</v>
       </c>
       <c r="E29" t="n">
-        <v>0.06950349009129964</v>
+        <v>0.2241798532534649</v>
       </c>
       <c r="F29" t="n">
+        <v>0.2808755305865302</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.06950349009129961</v>
+      </c>
+      <c r="H29" t="n">
         <v>73</v>
       </c>
-      <c r="G29" t="n">
+      <c r="I29" t="n">
         <v>87.91304347826087</v>
       </c>
-      <c r="H29" t="n">
+      <c r="J29" t="n">
         <v>106</v>
       </c>
     </row>
@@ -1327,21 +1505,27 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.2806324110671947</v>
+        <v>-0.2806324110671936</v>
       </c>
       <c r="D30" t="n">
-        <v>677.3478260869583</v>
+        <v>677.3478260869564</v>
       </c>
       <c r="E30" t="n">
+        <v>0.2410722001441939</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.2326162554155404</v>
+      </c>
+      <c r="G30" t="n">
         <v>0.064814755289262</v>
       </c>
-      <c r="F30" t="n">
+      <c r="H30" t="n">
         <v>97</v>
       </c>
-      <c r="G30" t="n">
+      <c r="I30" t="n">
         <v>112.4347826086957</v>
       </c>
-      <c r="H30" t="n">
+      <c r="J30" t="n">
         <v>125</v>
       </c>
     </row>
@@ -1357,21 +1541,27 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.2707509881422859</v>
+        <v>-0.2707509881422925</v>
       </c>
       <c r="D31" t="n">
-        <v>648.4130434782472</v>
+        <v>648.413043478261</v>
       </c>
       <c r="E31" t="n">
-        <v>0.05965988556897653</v>
+        <v>0.261355673790702</v>
       </c>
       <c r="F31" t="n">
+        <v>0.2345641715199093</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.05965988556897651</v>
+      </c>
+      <c r="H31" t="n">
         <v>88</v>
       </c>
-      <c r="G31" t="n">
+      <c r="I31" t="n">
         <v>103.3913043478261</v>
       </c>
-      <c r="H31" t="n">
+      <c r="J31" t="n">
         <v>114</v>
       </c>
     </row>
@@ -1387,21 +1577,27 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-1.012845849802305</v>
+        <v>-1.012845849802371</v>
       </c>
       <c r="D32" t="n">
-        <v>2140.249999999864</v>
+        <v>2140.25</v>
       </c>
       <c r="E32" t="n">
-        <v>0.05767120794207943</v>
+        <v>0.269708362819807</v>
       </c>
       <c r="F32" t="n">
+        <v>0.8934194685227461</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.05767120794207942</v>
+      </c>
+      <c r="H32" t="n">
         <v>71</v>
       </c>
-      <c r="G32" t="n">
+      <c r="I32" t="n">
         <v>101.3913043478261</v>
       </c>
-      <c r="H32" t="n">
+      <c r="J32" t="n">
         <v>214</v>
       </c>
     </row>
@@ -1417,21 +1613,27 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.2341897233201368</v>
+        <v>-0.2341897233201581</v>
       </c>
       <c r="D33" t="n">
-        <v>534.2499999999569</v>
+        <v>534.25</v>
       </c>
       <c r="E33" t="n">
+        <v>0.2910986856413622</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.2162469022373165</v>
+      </c>
+      <c r="G33" t="n">
         <v>0.05289501043416683</v>
       </c>
-      <c r="F33" t="n">
+      <c r="H33" t="n">
         <v>59</v>
       </c>
-      <c r="G33" t="n">
+      <c r="I33" t="n">
         <v>62.82608695652174</v>
       </c>
-      <c r="H33" t="n">
+      <c r="J33" t="n">
         <v>90</v>
       </c>
     </row>
@@ -1447,21 +1649,27 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.3626482213438025</v>
+        <v>-0.3626482213438735</v>
       </c>
       <c r="D34" t="n">
-        <v>810.0108695650741</v>
+        <v>810.0108695652173</v>
       </c>
       <c r="E34" t="n">
-        <v>0.05072099742118964</v>
+        <v>0.3015093400850077</v>
       </c>
       <c r="F34" t="n">
+        <v>0.3423567926572814</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.05072099742118961</v>
+      </c>
+      <c r="H34" t="n">
         <v>63</v>
       </c>
-      <c r="G34" t="n">
+      <c r="I34" t="n">
         <v>80</v>
       </c>
-      <c r="H34" t="n">
+      <c r="J34" t="n">
         <v>103</v>
       </c>
     </row>
@@ -1477,21 +1685,27 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.8438735177865977</v>
+        <v>-0.8438735177865611</v>
       </c>
       <c r="D35" t="n">
-        <v>1819.326086956594</v>
+        <v>1819.326086956521</v>
       </c>
       <c r="E35" t="n">
-        <v>0.04255374268672822</v>
+        <v>0.3449899638413881</v>
       </c>
       <c r="F35" t="n">
+        <v>0.8734861679906489</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.04255374268672821</v>
+      </c>
+      <c r="H35" t="n">
         <v>95</v>
       </c>
-      <c r="G35" t="n">
+      <c r="I35" t="n">
         <v>120.6086956521739</v>
       </c>
-      <c r="H35" t="n">
+      <c r="J35" t="n">
         <v>215</v>
       </c>
     </row>
@@ -1507,21 +1721,27 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.2015810276679545</v>
+        <v>-0.2015810276679842</v>
       </c>
       <c r="D36" t="n">
-        <v>504.9565217390706</v>
+        <v>504.9565217391304</v>
       </c>
       <c r="E36" t="n">
+        <v>0.3605035184688489</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.2156346388835518</v>
+      </c>
+      <c r="G36" t="n">
         <v>0.03995176910611564</v>
       </c>
-      <c r="F36" t="n">
+      <c r="H36" t="n">
         <v>88</v>
       </c>
-      <c r="G36" t="n">
+      <c r="I36" t="n">
         <v>99.17391304347827</v>
       </c>
-      <c r="H36" t="n">
+      <c r="J36" t="n">
         <v>110</v>
       </c>
     </row>
@@ -1537,21 +1757,27 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.2104743083003366</v>
+        <v>-0.2104743083003952</v>
       </c>
       <c r="D37" t="n">
-        <v>512.0760869564034</v>
+        <v>512.0760869565217</v>
       </c>
       <c r="E37" t="n">
+        <v>0.3965177043962984</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.243168203383033</v>
+      </c>
+      <c r="G37" t="n">
         <v>0.03444623626523808</v>
       </c>
-      <c r="F37" t="n">
+      <c r="H37" t="n">
         <v>75</v>
       </c>
-      <c r="G37" t="n">
+      <c r="I37" t="n">
         <v>88.39130434782609</v>
       </c>
-      <c r="H37" t="n">
+      <c r="J37" t="n">
         <v>106</v>
       </c>
     </row>
@@ -1567,21 +1793,27 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-0.8922924901185043</v>
+        <v>-0.892292490118577</v>
       </c>
       <c r="D38" t="n">
-        <v>1848.184782608548</v>
+        <v>1848.184782608696</v>
       </c>
       <c r="E38" t="n">
+        <v>0.4514635005624471</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.162948685977978</v>
+      </c>
+      <c r="G38" t="n">
         <v>0.0272688546966656</v>
       </c>
-      <c r="F38" t="n">
+      <c r="H38" t="n">
         <v>31</v>
       </c>
-      <c r="G38" t="n">
+      <c r="I38" t="n">
         <v>52</v>
       </c>
-      <c r="H38" t="n">
+      <c r="J38" t="n">
         <v>214</v>
       </c>
     </row>
@@ -1597,21 +1829,27 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.2962072806143304</v>
+        <v>0.2962072806143385</v>
       </c>
       <c r="D39" t="n">
-        <v>-450.6338589600637</v>
+        <v>-450.6338589600798</v>
       </c>
       <c r="E39" t="n">
+        <v>0.487243105644702</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.4176226000552829</v>
+      </c>
+      <c r="G39" t="n">
         <v>0.02718815986892614</v>
       </c>
-      <c r="F39" t="n">
+      <c r="H39" t="n">
         <v>130</v>
       </c>
-      <c r="G39" t="n">
+      <c r="I39" t="n">
         <v>145.35</v>
       </c>
-      <c r="H39" t="n">
+      <c r="J39" t="n">
         <v>171</v>
       </c>
     </row>
@@ -1627,21 +1865,27 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>-0.2243083003952536</v>
+        <v>-0.2243083003952568</v>
       </c>
       <c r="D40" t="n">
-        <v>571.7065217391236</v>
+        <v>571.7065217391302</v>
       </c>
       <c r="E40" t="n">
+        <v>0.495124244800452</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.3230864094201761</v>
+      </c>
+      <c r="G40" t="n">
         <v>0.02243770618009032</v>
       </c>
-      <c r="F40" t="n">
+      <c r="H40" t="n">
         <v>100</v>
       </c>
-      <c r="G40" t="n">
+      <c r="I40" t="n">
         <v>120.1739130434783</v>
       </c>
-      <c r="H40" t="n">
+      <c r="J40" t="n">
         <v>137</v>
       </c>
     </row>
@@ -1657,21 +1901,27 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>-0.2520295868663152</v>
+        <v>-0.252029586866318</v>
       </c>
       <c r="D41" t="n">
-        <v>608.8584701425167</v>
+        <v>608.8584701425225</v>
       </c>
       <c r="E41" t="n">
+        <v>0.5163803586095886</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.3814923252902304</v>
+      </c>
+      <c r="G41" t="n">
         <v>0.02135630193963129</v>
       </c>
-      <c r="F41" t="n">
+      <c r="H41" t="n">
         <v>85</v>
       </c>
-      <c r="G41" t="n">
+      <c r="I41" t="n">
         <v>101.5</v>
       </c>
-      <c r="H41" t="n">
+      <c r="J41" t="n">
         <v>138</v>
       </c>
     </row>
@@ -1687,21 +1937,27 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.1185770750988089</v>
+        <v>0.1185770750988142</v>
       </c>
       <c r="D42" t="n">
-        <v>-36.21739130433699</v>
+        <v>-36.21739130434781</v>
       </c>
       <c r="E42" t="n">
+        <v>0.576326027623221</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.2089100672921801</v>
+      </c>
+      <c r="G42" t="n">
         <v>0.01510954419541677</v>
       </c>
-      <c r="F42" t="n">
+      <c r="H42" t="n">
         <v>187</v>
       </c>
-      <c r="G42" t="n">
+      <c r="I42" t="n">
         <v>202.4782608695652</v>
       </c>
-      <c r="H42" t="n">
+      <c r="J42" t="n">
         <v>211</v>
       </c>
     </row>
@@ -1717,21 +1973,27 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-0.3458498023715044</v>
+        <v>-0.3458498023715415</v>
       </c>
       <c r="D43" t="n">
-        <v>811.0217391303596</v>
+        <v>811.0217391304348</v>
       </c>
       <c r="E43" t="n">
-        <v>0.00964882377293742</v>
+        <v>0.6556715174799485</v>
       </c>
       <c r="F43" t="n">
+        <v>0.7646017859440888</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.009648823772937416</v>
+      </c>
+      <c r="H43" t="n">
         <v>88</v>
       </c>
-      <c r="G43" t="n">
+      <c r="I43" t="n">
         <v>114.8260869565217</v>
       </c>
-      <c r="H43" t="n">
+      <c r="J43" t="n">
         <v>215</v>
       </c>
     </row>
@@ -1747,21 +2009,27 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.2018762403030799</v>
+        <v>0.2018762403030852</v>
       </c>
       <c r="D44" t="n">
-        <v>-318.1224968428546</v>
+        <v>-318.1224968428652</v>
       </c>
       <c r="E44" t="n">
-        <v>0.009564313175797126</v>
+        <v>0.6650331551908923</v>
       </c>
       <c r="F44" t="n">
+        <v>0.4593634702792516</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.00956431317579713</v>
+      </c>
+      <c r="H44" t="n">
         <v>71</v>
       </c>
-      <c r="G44" t="n">
+      <c r="I44" t="n">
         <v>88.27272727272727</v>
       </c>
-      <c r="H44" t="n">
+      <c r="J44" t="n">
         <v>142</v>
       </c>
     </row>
@@ -1777,21 +2045,27 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>-0.1294466403162105</v>
+        <v>-0.1294466403162055</v>
       </c>
       <c r="D45" t="n">
-        <v>383.9239130434881</v>
+        <v>383.9239130434781</v>
       </c>
       <c r="E45" t="n">
+        <v>0.6797573350735435</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.3092357659783802</v>
+      </c>
+      <c r="G45" t="n">
         <v>0.008275115150486437</v>
       </c>
-      <c r="F45" t="n">
+      <c r="H45" t="n">
         <v>106</v>
       </c>
-      <c r="G45" t="n">
+      <c r="I45" t="n">
         <v>123.3478260869565</v>
       </c>
-      <c r="H45" t="n">
+      <c r="J45" t="n">
         <v>138</v>
       </c>
     </row>
@@ -1807,21 +2081,27 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.06404474111491504</v>
+        <v>0.06404474111491977</v>
       </c>
       <c r="D46" t="n">
-        <v>31.29938661375654</v>
+        <v>31.29938661374698</v>
       </c>
       <c r="E46" t="n">
+        <v>0.7152300713456992</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.1730673836797151</v>
+      </c>
+      <c r="G46" t="n">
         <v>0.006800533342046369</v>
       </c>
-      <c r="F46" t="n">
+      <c r="H46" t="n">
         <v>146</v>
       </c>
-      <c r="G46" t="n">
+      <c r="I46" t="n">
         <v>160.2272727272727</v>
       </c>
-      <c r="H46" t="n">
+      <c r="J46" t="n">
         <v>169</v>
       </c>
     </row>
@@ -1837,21 +2117,27 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>-0.05039525691699448</v>
+        <v>-0.05039525691699605</v>
       </c>
       <c r="D47" t="n">
-        <v>265.2717391304315</v>
+        <v>265.2717391304348</v>
       </c>
       <c r="E47" t="n">
+        <v>0.7602547285098281</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.1630129613428026</v>
+      </c>
+      <c r="G47" t="n">
         <v>0.004530474889916947</v>
       </c>
-      <c r="F47" t="n">
+      <c r="H47" t="n">
         <v>153</v>
       </c>
-      <c r="G47" t="n">
+      <c r="I47" t="n">
         <v>163.8260869565217</v>
       </c>
-      <c r="H47" t="n">
+      <c r="J47" t="n">
         <v>175</v>
       </c>
     </row>
@@ -1867,21 +2153,27 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>-0.1867588932806205</v>
+        <v>-0.1867588932806324</v>
       </c>
       <c r="D48" t="n">
-        <v>505.7282608695408</v>
+        <v>505.7282608695652</v>
       </c>
       <c r="E48" t="n">
-        <v>0.003783253998783293</v>
+        <v>0.7804010314300175</v>
       </c>
       <c r="F48" t="n">
+        <v>0.6613263289026386</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.003783253998783292</v>
+      </c>
+      <c r="H48" t="n">
         <v>111</v>
       </c>
-      <c r="G48" t="n">
+      <c r="I48" t="n">
         <v>129.7826086956522</v>
       </c>
-      <c r="H48" t="n">
+      <c r="J48" t="n">
         <v>215</v>
       </c>
     </row>
@@ -1897,21 +2189,27 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>-0.08399209486167888</v>
+        <v>-0.08399209486166011</v>
       </c>
       <c r="D49" t="n">
-        <v>392.7717391304725</v>
+        <v>392.7717391304349</v>
       </c>
       <c r="E49" t="n">
-        <v>0.003203116133242541</v>
+        <v>0.7975693176541551</v>
       </c>
       <c r="F49" t="n">
+        <v>0.3233298190655447</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.00320311613324254</v>
+      </c>
+      <c r="H49" t="n">
         <v>191</v>
       </c>
-      <c r="G49" t="n">
+      <c r="I49" t="n">
         <v>223.695652173913</v>
       </c>
-      <c r="H49" t="n">
+      <c r="J49" t="n">
         <v>238</v>
       </c>
     </row>
@@ -1927,21 +2225,27 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>-0.03952569169960563</v>
+        <v>-0.03952569169960474</v>
       </c>
       <c r="D50" t="n">
-        <v>244.869565217393</v>
+        <v>244.8695652173913</v>
       </c>
       <c r="E50" t="n">
-        <v>0.003156565656565656</v>
+        <v>0.7990162081806997</v>
       </c>
       <c r="F50" t="n">
+        <v>0.1532766127142301</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.003156565656565655</v>
+      </c>
+      <c r="H50" t="n">
         <v>157</v>
       </c>
-      <c r="G50" t="n">
+      <c r="I50" t="n">
         <v>165.304347826087</v>
       </c>
-      <c r="H50" t="n">
+      <c r="J50" t="n">
         <v>175</v>
       </c>
     </row>
@@ -1957,21 +2261,27 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.06818181818182505</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="D51" t="n">
-        <v>67.44565217389922</v>
+        <v>67.44565217391303</v>
       </c>
       <c r="E51" t="n">
-        <v>0.002935076912454441</v>
+        <v>0.8060605427812826</v>
       </c>
       <c r="F51" t="n">
+        <v>0.2742274383136997</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.002935076912454442</v>
+      </c>
+      <c r="H51" t="n">
         <v>181</v>
       </c>
-      <c r="G51" t="n">
+      <c r="I51" t="n">
         <v>204.695652173913</v>
       </c>
-      <c r="H51" t="n">
+      <c r="J51" t="n">
         <v>219</v>
       </c>
     </row>
@@ -1987,21 +2297,27 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>-0.1808300395256658</v>
+        <v>-0.1808300395256917</v>
       </c>
       <c r="D52" t="n">
-        <v>478.5326086955999</v>
+        <v>478.5326086956521</v>
       </c>
       <c r="E52" t="n">
+        <v>0.8162919102538013</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.7686647105767097</v>
+      </c>
+      <c r="G52" t="n">
         <v>0.002628481566643769</v>
       </c>
-      <c r="F52" t="n">
+      <c r="H52" t="n">
         <v>93</v>
       </c>
-      <c r="G52" t="n">
+      <c r="I52" t="n">
         <v>114.5217391304348</v>
       </c>
-      <c r="H52" t="n">
+      <c r="J52" t="n">
         <v>215</v>
       </c>
     </row>
@@ -2017,21 +2333,27 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>-0.05502435504239614</v>
+        <v>-0.0550243550423959</v>
       </c>
       <c r="D53" t="n">
-        <v>213.9963016417109</v>
+        <v>213.9963016417104</v>
       </c>
       <c r="E53" t="n">
+        <v>0.8750803858317979</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.3455532782645224</v>
+      </c>
+      <c r="G53" t="n">
         <v>0.00126619222422474</v>
       </c>
-      <c r="F53" t="n">
+      <c r="H53" t="n">
         <v>86</v>
       </c>
-      <c r="G53" t="n">
+      <c r="I53" t="n">
         <v>103.2272727272727</v>
       </c>
-      <c r="H53" t="n">
+      <c r="J53" t="n">
         <v>138</v>
       </c>
     </row>
@@ -2047,21 +2369,27 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>-0.00592885375492831</v>
+        <v>-0.005928853754940711</v>
       </c>
       <c r="D54" t="n">
-        <v>216.8913043478011</v>
+        <v>216.8913043478261</v>
       </c>
       <c r="E54" t="n">
-        <v>3.686500036865001e-05</v>
+        <v>0.9780649863476089</v>
       </c>
       <c r="F54" t="n">
+        <v>0.2130816072415792</v>
+      </c>
+      <c r="G54" t="n">
+        <v>3.686500036865002e-05</v>
+      </c>
+      <c r="H54" t="n">
         <v>191</v>
       </c>
-      <c r="G54" t="n">
+      <c r="I54" t="n">
         <v>204.9565217391304</v>
       </c>
-      <c r="H54" t="n">
+      <c r="J54" t="n">
         <v>213</v>
       </c>
     </row>
@@ -2077,21 +2405,27 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.03359683794470031</v>
+        <v>0.03359683794466409</v>
       </c>
       <c r="D55" t="n">
-        <v>2.891304347753078</v>
+        <v>2.891304347825979</v>
       </c>
       <c r="E55" t="n">
+        <v>0.9821768342612078</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.486095236910765</v>
+      </c>
+      <c r="G55" t="n">
         <v>2.433737086666818e-05</v>
       </c>
-      <c r="F55" t="n">
+      <c r="H55" t="n">
         <v>59</v>
       </c>
-      <c r="G55" t="n">
+      <c r="I55" t="n">
         <v>70.52173913043478</v>
       </c>
-      <c r="H55" t="n">
+      <c r="J55" t="n">
         <v>282</v>
       </c>
     </row>
